--- a/shed_example.xlsx
+++ b/shed_example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0851A74-AA65-4BD0-A0B4-6BBF766350EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BB169F-87AE-4223-85D8-44DCAE263966}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>неч</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Сергей Шнуров</t>
+  </si>
+  <si>
+    <t>8. Первая строка с заголовком колонки не должна быть изменена или удалена. Расписание считывается со 2ой строки</t>
   </si>
 </sst>
 </file>
@@ -310,13 +313,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -331,16 +344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -684,8 +687,8 @@
   </sheetPr>
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +736,7 @@
       <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="4">
         <v>0.33333333333333331</v>
       </c>
       <c r="C2" t="s">
@@ -754,27 +757,27 @@
       <c r="I2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="4">
         <v>0.40277777777777773</v>
       </c>
       <c r="C3" t="s">
@@ -795,23 +798,23 @@
       <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="4">
         <v>0.63194444444444442</v>
       </c>
       <c r="C4" t="s">
@@ -835,28 +838,28 @@
       <c r="I4" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="Q4" s="8" t="s">
+      <c r="O4" s="7"/>
+      <c r="Q4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="4">
         <v>0.47222222222222227</v>
       </c>
       <c r="D5" t="s">
@@ -877,329 +880,322 @@
       <c r="I5" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="O5" s="9"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J6" s="7"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="7"/>
-      <c r="N7" s="5" t="s">
+      <c r="J7" s="11"/>
+      <c r="N7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="Q7" s="9" t="s">
+      <c r="O7" s="7"/>
+      <c r="Q7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J8" s="7"/>
+      <c r="J8" s="11"/>
       <c r="N8" t="s">
         <v>1</v>
       </c>
       <c r="O8" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J9" s="7"/>
+      <c r="J9" s="11"/>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J10" s="7"/>
+      <c r="J10" s="11"/>
       <c r="N10" t="s">
         <v>15</v>
       </c>
       <c r="O10" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J11" s="7"/>
+      <c r="J11" s="11"/>
       <c r="N11" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="Q11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J12" s="7"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="O12" s="5"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="7"/>
-      <c r="O13" s="4"/>
-      <c r="Q13" s="9" t="s">
+      <c r="J13" s="11"/>
+      <c r="O13" s="5"/>
+      <c r="Q13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J14" s="7"/>
+      <c r="J14" s="11"/>
       <c r="O14" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J15" s="7"/>
+      <c r="J15" s="11"/>
       <c r="N15" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J16" s="7"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+      <c r="J16" s="11"/>
+      <c r="O16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
     </row>
     <row r="17" spans="10:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17" s="7"/>
-      <c r="O17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
+      <c r="J17" s="11"/>
+      <c r="O17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
     </row>
     <row r="18" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J18" s="7"/>
-      <c r="O18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="J18" s="11"/>
+      <c r="O18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
     </row>
     <row r="19" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J19" s="7"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="4" t="s">
+      <c r="J19" s="11"/>
+      <c r="O19" s="5"/>
+      <c r="Q19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
     </row>
     <row r="20" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J20" s="7"/>
-      <c r="N20" s="5" t="s">
+      <c r="J20" s="11"/>
+      <c r="N20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="O20" s="7"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
     </row>
     <row r="21" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J21" s="7"/>
+      <c r="J21" s="11"/>
       <c r="N21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="O21" s="3"/>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
     </row>
     <row r="22" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J22" s="7"/>
-      <c r="N22" s="11" t="s">
+      <c r="J22" s="11"/>
+      <c r="N22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="11"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-    </row>
-    <row r="23" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J23" s="7"/>
+      <c r="O22" s="10"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="10:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="11"/>
       <c r="N23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="O23" s="6"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
+      <c r="Q23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
     </row>
     <row r="24" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J24" s="7"/>
-      <c r="N24" s="5" t="s">
+      <c r="J24" s="11"/>
+      <c r="N24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="5"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
+      <c r="O24" s="7"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
     </row>
     <row r="25" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J25" s="7"/>
+      <c r="J25" s="11"/>
       <c r="N25" s="6" t="s">
         <v>28</v>
       </c>
       <c r="O25" s="6"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
     </row>
     <row r="26" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J26" s="7"/>
-      <c r="N26" s="5" t="s">
+      <c r="J26" s="11"/>
+      <c r="N26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O26" s="5"/>
+      <c r="O26" s="7"/>
     </row>
     <row r="27" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J27" s="7"/>
+      <c r="J27" s="11"/>
       <c r="N27" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O27" s="6"/>
     </row>
     <row r="28" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J28" s="7"/>
-      <c r="N28" s="5" t="s">
+      <c r="J28" s="11"/>
+      <c r="N28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O28" s="5"/>
+      <c r="O28" s="7"/>
     </row>
     <row r="29" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J29" s="7"/>
+      <c r="J29" s="11"/>
       <c r="N29" s="6" t="s">
         <v>31</v>
       </c>
       <c r="O29" s="6"/>
     </row>
     <row r="30" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J30" s="7"/>
-      <c r="N30" s="5" t="s">
+      <c r="J30" s="11"/>
+      <c r="N30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="5"/>
+      <c r="O30" s="7"/>
     </row>
     <row r="31" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J31" s="7"/>
-      <c r="N31" s="4" t="s">
+      <c r="J31" s="11"/>
+      <c r="N31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="4"/>
+      <c r="O31" s="5"/>
     </row>
     <row r="32" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J32" s="7"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
+      <c r="J32" s="11"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
     </row>
     <row r="33" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J33" s="7"/>
-      <c r="N33" s="5" t="s">
+      <c r="J33" s="11"/>
+      <c r="N33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O33" s="5"/>
+      <c r="O33" s="7"/>
     </row>
     <row r="34" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J34" s="7"/>
-      <c r="N34" s="6" t="s">
+      <c r="J34" s="11"/>
+      <c r="N34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O34" s="6"/>
+      <c r="O34" s="5"/>
     </row>
     <row r="35" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J35" s="7"/>
+      <c r="J35" s="11"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
     </row>
     <row r="36" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J36" s="7"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J37" s="7"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J38" s="7"/>
+      <c r="J38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Q21:T22"/>
-    <mergeCell ref="Q23:T24"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="K2:T3"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="Q19:T20"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="O15:O19"/>
-    <mergeCell ref="Q15:T18"/>
+    <mergeCell ref="N34:O35"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
     <mergeCell ref="J2:J38"/>
     <mergeCell ref="Q4:T5"/>
     <mergeCell ref="Q7:T8"/>
@@ -1213,6 +1209,21 @@
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="N31:O32"/>
     <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Q23:T25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O15:O19"/>
+    <mergeCell ref="Q15:T18"/>
+    <mergeCell ref="Q21:T22"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="K2:T3"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="Q19:T20"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="10" orientation="landscape" r:id="rId1"/>
